--- a/target/classes/examples/畜牧散养.xlsx
+++ b/target/classes/examples/畜牧散养.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_8BF126E276CDE8C283F4FD86ED05B3D8EAF4AD74" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{196CED88-353D-4B8D-9514-34FA82806DD5}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,61 +15,196 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>年份</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>区县名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>区县编码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>饲养量（头/羽）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津SCC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>计算周期（天）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>西青区</t>
+    <t>SCC编码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>650000</t>
-  </si>
-  <si>
-    <t>1704002002</t>
-  </si>
-  <si>
-    <t>西青区1</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>养殖场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>650100</t>
-  </si>
-  <si>
-    <t>西青区2</t>
+    <t>组织机构代码</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市、州、盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>650102</t>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>饲养量（头/羽）</t>
+  </si>
+  <si>
+    <t>PM10排放量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25排放量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO排放量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC排放量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 排放量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX排放量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3排放量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>652122</t>
+  </si>
+  <si>
+    <t>北京亚大蛋业有限公司宝坻分公司</t>
+  </si>
+  <si>
+    <t>71890209-7　</t>
+  </si>
+  <si>
+    <t>宝坻区牛道口芮家庄</t>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>650121</t>
+  </si>
+  <si>
+    <t>06553658-6　</t>
+  </si>
+  <si>
+    <t>650202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +239,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,56 +278,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 8" xfId="1"/>
+    <cellStyle name="常规 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -190,7 +311,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -265,6 +386,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -300,6 +438,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,102 +630,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1704002002</v>
+      </c>
+      <c r="B2">
         <v>2013</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>117.223935</v>
+      </c>
+      <c r="H2">
+        <v>39.784611499999997</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1">
         <v>5212558</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="K2">
         <v>365</v>
       </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1704002002</v>
+      </c>
+      <c r="B3">
         <v>2014</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>117.223935</v>
+      </c>
+      <c r="H3">
+        <v>39.784611499999997</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1">
         <v>5212558</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="K3">
         <v>365</v>
       </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1704002002</v>
+      </c>
+      <c r="B4">
         <v>2016</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>117.223935</v>
+      </c>
+      <c r="H4">
+        <v>39.784611499999997</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1">
         <v>5212558</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="K4">
         <v>365</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"北辰区"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/target/classes/examples/畜牧散养.xlsx
+++ b/target/classes/examples/畜牧散养.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_8BF126E276CDE8C283F4FD86ED05B3D8EAF4AD74" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{196CED88-353D-4B8D-9514-34FA82806DD5}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_8BF126E276CDE8C283F4FD86ED05B3D8EAF4AD74" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF66FF4C-68DD-4792-960C-9E457DBC6825}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,186 +15,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>年份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>区县编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计算周期（天）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCC编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>养殖场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织机构代码</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>市、州、盟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>经度</t>
-  </si>
-  <si>
-    <t>纬度</t>
-  </si>
-  <si>
-    <t>所在功能区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>饲养量（头/羽）</t>
   </si>
   <si>
     <t>PM10排放量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PM25排放量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CO排放量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VOC排放量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SO2 排放量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NOX排放量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NH3排放量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OC排放量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BC排放量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>652122</t>
   </si>
   <si>
-    <t>北京亚大蛋业有限公司宝坻分公司</t>
-  </si>
-  <si>
-    <t>71890209-7　</t>
-  </si>
-  <si>
-    <t>宝坻区牛道口芮家庄</t>
-  </si>
-  <si>
-    <t>商业区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>650121</t>
-  </si>
-  <si>
-    <t>06553658-6　</t>
   </si>
   <si>
     <t>650202</t>
@@ -204,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,12 +102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -238,14 +113,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -278,19 +145,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -642,7 +503,7 @@
     <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -655,26 +516,26 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
@@ -685,26 +546,8 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1704002002</v>
       </c>
@@ -712,32 +555,32 @@
         <v>2013</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>117.223935</v>
-      </c>
-      <c r="H2">
-        <v>39.784611499999997</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
         <v>5212558</v>
       </c>
-      <c r="K2">
+      <c r="E2">
         <v>365</v>
       </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
@@ -747,26 +590,8 @@
       <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1704002002</v>
       </c>
@@ -774,32 +599,32 @@
         <v>2014</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>117.223935</v>
-      </c>
-      <c r="H3">
-        <v>39.784611499999997</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
         <v>5212558</v>
       </c>
-      <c r="K3">
+      <c r="E3">
         <v>365</v>
       </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
       <c r="L3" s="2">
         <v>0</v>
       </c>
@@ -809,26 +634,8 @@
       <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1704002002</v>
       </c>
@@ -836,32 +643,32 @@
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>117.223935</v>
-      </c>
-      <c r="H4">
-        <v>39.784611499999997</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
         <v>5212558</v>
       </c>
-      <c r="K4">
+      <c r="E4">
         <v>365</v>
       </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
@@ -869,29 +676,11 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/target/classes/examples/畜牧散养.xlsx
+++ b/target/classes/examples/畜牧散养.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_8BF126E276CDE8C283F4FD86ED05B3D8EAF4AD74" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF66FF4C-68DD-4792-960C-9E457DBC6825}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD924EED-6125-46C2-84F8-3C0BC389F1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1035" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>年份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -70,15 +70,6 @@
   <si>
     <t>BC排放量</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>652122</t>
-  </si>
-  <si>
-    <t>650121</t>
-  </si>
-  <si>
-    <t>650202</t>
   </si>
 </sst>
 </file>
@@ -495,15 +486,15 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -547,15 +538,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1704002002</v>
+        <v>1702012010</v>
       </c>
       <c r="B2">
         <v>2013</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2">
+        <v>210101</v>
       </c>
       <c r="D2" s="1">
         <v>5212558</v>
@@ -591,15 +582,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1704002002</v>
+        <v>1702012020</v>
       </c>
       <c r="B3">
         <v>2014</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
+      <c r="C3">
+        <v>210102</v>
       </c>
       <c r="D3" s="1">
         <v>5212558</v>
@@ -635,15 +626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1704002002</v>
+        <v>1702012030</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
+      <c r="C4">
+        <v>210103</v>
       </c>
       <c r="D4" s="1">
         <v>5212558</v>
@@ -682,6 +673,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>